--- a/调用资料/销量表.xlsx
+++ b/调用资料/销量表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PythonStudy_Git\调用资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96293135-929D-4008-91C3-EAF44408B40B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A75BC38-9341-419E-9F71-63C8FD7AFFA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,19 +16,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>柚子茶</t>
   </si>
@@ -52,10 +44,6 @@
   </si>
   <si>
     <t>菜名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,8 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -442,20 +431,21 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
+      <c r="B1" s="1">
+        <v>44058</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -463,7 +453,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -487,7 +477,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -495,7 +485,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
